--- a/public/datafiles/CSVs/MH.xlsx
+++ b/public/datafiles/CSVs/MH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jered\Desktop\ShudhFinal\Shudh.anvirobotics-Latest\my-project\public\datafiles\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72EA40C-05DC-4C66-8368-BED13109F8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49619D31-AA75-4560-B973-971E4A11E2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="93" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="93" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2616,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="T2" s="1">
-        <v>45945</v>
+        <v>45931</v>
       </c>
       <c r="U2" t="s">
         <v>13</v>
@@ -2709,7 +2709,7 @@
         <v>39</v>
       </c>
       <c r="T3" s="1">
-        <v>45948</v>
+        <v>45932</v>
       </c>
       <c r="U3" t="s">
         <v>40</v>
